--- a/Proceed.xlsx
+++ b/Proceed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,21 @@
           <t>解几</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>总分</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>评价</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -524,6 +539,17 @@
       <c r="J2" t="n">
         <v>80</v>
       </c>
+      <c r="K2" t="n">
+        <v>496</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -564,6 +590,17 @@
       <c r="J3" t="n">
         <v>0</v>
       </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>95</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>及格</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -604,6 +641,17 @@
       <c r="J4" t="n">
         <v>0</v>
       </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>96</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>及格</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -644,6 +692,17 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>97</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>及格</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -684,6 +743,17 @@
       <c r="J6" t="n">
         <v>0</v>
       </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>98</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>及格</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -724,6 +794,17 @@
       <c r="J7" t="n">
         <v>77</v>
       </c>
+      <c r="K7" t="n">
+        <v>372</v>
+      </c>
+      <c r="L7" t="n">
+        <v>75</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -764,6 +845,17 @@
       <c r="J8" t="n">
         <v>56</v>
       </c>
+      <c r="K8" t="n">
+        <v>386</v>
+      </c>
+      <c r="L8" t="n">
+        <v>67</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -804,6 +896,17 @@
       <c r="J9" t="n">
         <v>45</v>
       </c>
+      <c r="K9" t="n">
+        <v>269</v>
+      </c>
+      <c r="L9" t="n">
+        <v>94</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>及格</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -844,6 +947,17 @@
       <c r="J10" t="n">
         <v>48</v>
       </c>
+      <c r="K10" t="n">
+        <v>386</v>
+      </c>
+      <c r="L10" t="n">
+        <v>68</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -884,6 +998,17 @@
       <c r="J11" t="n">
         <v>43</v>
       </c>
+      <c r="K11" t="n">
+        <v>405</v>
+      </c>
+      <c r="L11" t="n">
+        <v>57</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -924,6 +1049,17 @@
       <c r="J12" t="n">
         <v>90</v>
       </c>
+      <c r="K12" t="n">
+        <v>416</v>
+      </c>
+      <c r="L12" t="n">
+        <v>50</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -964,6 +1100,17 @@
       <c r="J13" t="n">
         <v>57</v>
       </c>
+      <c r="K13" t="n">
+        <v>400</v>
+      </c>
+      <c r="L13" t="n">
+        <v>63</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1004,6 +1151,17 @@
       <c r="J14" t="n">
         <v>40</v>
       </c>
+      <c r="K14" t="n">
+        <v>421</v>
+      </c>
+      <c r="L14" t="n">
+        <v>44</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1044,6 +1202,17 @@
       <c r="J15" t="n">
         <v>40</v>
       </c>
+      <c r="K15" t="n">
+        <v>401</v>
+      </c>
+      <c r="L15" t="n">
+        <v>61</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1084,6 +1253,17 @@
       <c r="J16" t="n">
         <v>46</v>
       </c>
+      <c r="K16" t="n">
+        <v>419</v>
+      </c>
+      <c r="L16" t="n">
+        <v>47</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1124,6 +1304,17 @@
       <c r="J17" t="n">
         <v>55</v>
       </c>
+      <c r="K17" t="n">
+        <v>366</v>
+      </c>
+      <c r="L17" t="n">
+        <v>78</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1164,6 +1355,17 @@
       <c r="J18" t="n">
         <v>80</v>
       </c>
+      <c r="K18" t="n">
+        <v>455</v>
+      </c>
+      <c r="L18" t="n">
+        <v>18</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1204,6 +1406,17 @@
       <c r="J19" t="n">
         <v>76</v>
       </c>
+      <c r="K19" t="n">
+        <v>402</v>
+      </c>
+      <c r="L19" t="n">
+        <v>59</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1244,6 +1457,17 @@
       <c r="J20" t="n">
         <v>62</v>
       </c>
+      <c r="K20" t="n">
+        <v>420</v>
+      </c>
+      <c r="L20" t="n">
+        <v>45</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1284,6 +1508,17 @@
       <c r="J21" t="n">
         <v>50</v>
       </c>
+      <c r="K21" t="n">
+        <v>440</v>
+      </c>
+      <c r="L21" t="n">
+        <v>26</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1324,6 +1559,17 @@
       <c r="J22" t="n">
         <v>73</v>
       </c>
+      <c r="K22" t="n">
+        <v>442</v>
+      </c>
+      <c r="L22" t="n">
+        <v>25</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1364,6 +1610,17 @@
       <c r="J23" t="n">
         <v>93</v>
       </c>
+      <c r="K23" t="n">
+        <v>420</v>
+      </c>
+      <c r="L23" t="n">
+        <v>46</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1404,6 +1661,17 @@
       <c r="J24" t="n">
         <v>41</v>
       </c>
+      <c r="K24" t="n">
+        <v>344</v>
+      </c>
+      <c r="L24" t="n">
+        <v>89</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>及格</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1444,6 +1712,17 @@
       <c r="J25" t="n">
         <v>0</v>
       </c>
+      <c r="K25" t="n">
+        <v>363</v>
+      </c>
+      <c r="L25" t="n">
+        <v>80</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>及格</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1484,6 +1763,17 @@
       <c r="J26" t="n">
         <v>68</v>
       </c>
+      <c r="K26" t="n">
+        <v>443</v>
+      </c>
+      <c r="L26" t="n">
+        <v>24</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1524,6 +1814,17 @@
       <c r="J27" t="n">
         <v>81</v>
       </c>
+      <c r="K27" t="n">
+        <v>461</v>
+      </c>
+      <c r="L27" t="n">
+        <v>14</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1564,6 +1865,17 @@
       <c r="J28" t="n">
         <v>75</v>
       </c>
+      <c r="K28" t="n">
+        <v>430</v>
+      </c>
+      <c r="L28" t="n">
+        <v>35</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1604,6 +1916,17 @@
       <c r="J29" t="n">
         <v>69</v>
       </c>
+      <c r="K29" t="n">
+        <v>360</v>
+      </c>
+      <c r="L29" t="n">
+        <v>81</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>及格</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1644,6 +1967,17 @@
       <c r="J30" t="n">
         <v>49</v>
       </c>
+      <c r="K30" t="n">
+        <v>333</v>
+      </c>
+      <c r="L30" t="n">
+        <v>92</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>及格</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1684,6 +2018,17 @@
       <c r="J31" t="n">
         <v>52</v>
       </c>
+      <c r="K31" t="n">
+        <v>428</v>
+      </c>
+      <c r="L31" t="n">
+        <v>38</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1724,6 +2069,17 @@
       <c r="J32" t="n">
         <v>83</v>
       </c>
+      <c r="K32" t="n">
+        <v>466</v>
+      </c>
+      <c r="L32" t="n">
+        <v>13</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1764,6 +2120,17 @@
       <c r="J33" t="n">
         <v>85</v>
       </c>
+      <c r="K33" t="n">
+        <v>456</v>
+      </c>
+      <c r="L33" t="n">
+        <v>16</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1804,6 +2171,17 @@
       <c r="J34" t="n">
         <v>60</v>
       </c>
+      <c r="K34" t="n">
+        <v>398</v>
+      </c>
+      <c r="L34" t="n">
+        <v>64</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1844,6 +2222,17 @@
       <c r="J35" t="n">
         <v>100</v>
       </c>
+      <c r="K35" t="n">
+        <v>434</v>
+      </c>
+      <c r="L35" t="n">
+        <v>31</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1884,6 +2273,17 @@
       <c r="J36" t="n">
         <v>68</v>
       </c>
+      <c r="K36" t="n">
+        <v>449</v>
+      </c>
+      <c r="L36" t="n">
+        <v>21</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1924,6 +2324,17 @@
       <c r="J37" t="n">
         <v>64</v>
       </c>
+      <c r="K37" t="n">
+        <v>484</v>
+      </c>
+      <c r="L37" t="n">
+        <v>8</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1964,6 +2375,17 @@
       <c r="J38" t="n">
         <v>44</v>
       </c>
+      <c r="K38" t="n">
+        <v>424</v>
+      </c>
+      <c r="L38" t="n">
+        <v>42</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2004,6 +2426,17 @@
       <c r="J39" t="n">
         <v>40</v>
       </c>
+      <c r="K39" t="n">
+        <v>355</v>
+      </c>
+      <c r="L39" t="n">
+        <v>84</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>及格</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2044,6 +2477,17 @@
       <c r="J40" t="n">
         <v>43</v>
       </c>
+      <c r="K40" t="n">
+        <v>342</v>
+      </c>
+      <c r="L40" t="n">
+        <v>90</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>及格</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2084,6 +2528,17 @@
       <c r="J41" t="n">
         <v>69</v>
       </c>
+      <c r="K41" t="n">
+        <v>456</v>
+      </c>
+      <c r="L41" t="n">
+        <v>17</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2124,6 +2579,17 @@
       <c r="J42" t="n">
         <v>50</v>
       </c>
+      <c r="K42" t="n">
+        <v>382</v>
+      </c>
+      <c r="L42" t="n">
+        <v>71</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2164,6 +2630,17 @@
       <c r="J43" t="n">
         <v>44</v>
       </c>
+      <c r="K43" t="n">
+        <v>440</v>
+      </c>
+      <c r="L43" t="n">
+        <v>27</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2204,6 +2681,17 @@
       <c r="J44" t="n">
         <v>79</v>
       </c>
+      <c r="K44" t="n">
+        <v>450</v>
+      </c>
+      <c r="L44" t="n">
+        <v>20</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2244,6 +2732,17 @@
       <c r="J45" t="n">
         <v>67</v>
       </c>
+      <c r="K45" t="n">
+        <v>366</v>
+      </c>
+      <c r="L45" t="n">
+        <v>79</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>及格</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2284,6 +2783,17 @@
       <c r="J46" t="n">
         <v>41</v>
       </c>
+      <c r="K46" t="n">
+        <v>386</v>
+      </c>
+      <c r="L46" t="n">
+        <v>69</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2324,6 +2834,17 @@
       <c r="J47" t="n">
         <v>41</v>
       </c>
+      <c r="K47" t="n">
+        <v>439</v>
+      </c>
+      <c r="L47" t="n">
+        <v>28</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2364,6 +2885,17 @@
       <c r="J48" t="n">
         <v>55</v>
       </c>
+      <c r="K48" t="n">
+        <v>472</v>
+      </c>
+      <c r="L48" t="n">
+        <v>10</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2404,6 +2936,17 @@
       <c r="J49" t="n">
         <v>93</v>
       </c>
+      <c r="K49" t="n">
+        <v>448</v>
+      </c>
+      <c r="L49" t="n">
+        <v>23</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2444,6 +2987,17 @@
       <c r="J50" t="n">
         <v>99</v>
       </c>
+      <c r="K50" t="n">
+        <v>432</v>
+      </c>
+      <c r="L50" t="n">
+        <v>34</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2484,6 +3038,17 @@
       <c r="J51" t="n">
         <v>74</v>
       </c>
+      <c r="K51" t="n">
+        <v>414</v>
+      </c>
+      <c r="L51" t="n">
+        <v>52</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2524,6 +3089,17 @@
       <c r="J52" t="n">
         <v>83</v>
       </c>
+      <c r="K52" t="n">
+        <v>524</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2564,6 +3140,17 @@
       <c r="J53" t="n">
         <v>88</v>
       </c>
+      <c r="K53" t="n">
+        <v>472</v>
+      </c>
+      <c r="L53" t="n">
+        <v>11</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2604,6 +3191,17 @@
       <c r="J54" t="n">
         <v>54</v>
       </c>
+      <c r="K54" t="n">
+        <v>507</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2644,6 +3242,17 @@
       <c r="J55" t="n">
         <v>83</v>
       </c>
+      <c r="K55" t="n">
+        <v>430</v>
+      </c>
+      <c r="L55" t="n">
+        <v>36</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2684,6 +3293,17 @@
       <c r="J56" t="n">
         <v>80</v>
       </c>
+      <c r="K56" t="n">
+        <v>457</v>
+      </c>
+      <c r="L56" t="n">
+        <v>15</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2724,6 +3344,17 @@
       <c r="J57" t="n">
         <v>52</v>
       </c>
+      <c r="K57" t="n">
+        <v>389</v>
+      </c>
+      <c r="L57" t="n">
+        <v>66</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2764,6 +3395,17 @@
       <c r="J58" t="n">
         <v>100</v>
       </c>
+      <c r="K58" t="n">
+        <v>452</v>
+      </c>
+      <c r="L58" t="n">
+        <v>19</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2804,6 +3446,17 @@
       <c r="J59" t="n">
         <v>50</v>
       </c>
+      <c r="K59" t="n">
+        <v>348</v>
+      </c>
+      <c r="L59" t="n">
+        <v>88</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>及格</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2844,6 +3497,17 @@
       <c r="J60" t="n">
         <v>96</v>
       </c>
+      <c r="K60" t="n">
+        <v>334</v>
+      </c>
+      <c r="L60" t="n">
+        <v>91</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>及格</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2884,6 +3548,17 @@
       <c r="J61" t="n">
         <v>61</v>
       </c>
+      <c r="K61" t="n">
+        <v>401</v>
+      </c>
+      <c r="L61" t="n">
+        <v>62</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2924,6 +3599,17 @@
       <c r="J62" t="n">
         <v>81</v>
       </c>
+      <c r="K62" t="n">
+        <v>532</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2964,6 +3650,17 @@
       <c r="J63" t="n">
         <v>79</v>
       </c>
+      <c r="K63" t="n">
+        <v>439</v>
+      </c>
+      <c r="L63" t="n">
+        <v>29</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3004,6 +3701,17 @@
       <c r="J64" t="n">
         <v>73</v>
       </c>
+      <c r="K64" t="n">
+        <v>427</v>
+      </c>
+      <c r="L64" t="n">
+        <v>40</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3044,6 +3752,17 @@
       <c r="J65" t="n">
         <v>53</v>
       </c>
+      <c r="K65" t="n">
+        <v>354</v>
+      </c>
+      <c r="L65" t="n">
+        <v>85</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>及格</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3084,6 +3803,17 @@
       <c r="J66" t="n">
         <v>68</v>
       </c>
+      <c r="K66" t="n">
+        <v>423</v>
+      </c>
+      <c r="L66" t="n">
+        <v>43</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3124,6 +3854,17 @@
       <c r="J67" t="n">
         <v>56</v>
       </c>
+      <c r="K67" t="n">
+        <v>328</v>
+      </c>
+      <c r="L67" t="n">
+        <v>93</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>及格</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3164,6 +3905,17 @@
       <c r="J68" t="n">
         <v>80</v>
       </c>
+      <c r="K68" t="n">
+        <v>402</v>
+      </c>
+      <c r="L68" t="n">
+        <v>60</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3204,6 +3956,17 @@
       <c r="J69" t="n">
         <v>59</v>
       </c>
+      <c r="K69" t="n">
+        <v>433</v>
+      </c>
+      <c r="L69" t="n">
+        <v>32</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3244,6 +4007,17 @@
       <c r="J70" t="n">
         <v>77</v>
       </c>
+      <c r="K70" t="n">
+        <v>430</v>
+      </c>
+      <c r="L70" t="n">
+        <v>37</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3284,6 +4058,17 @@
       <c r="J71" t="n">
         <v>73</v>
       </c>
+      <c r="K71" t="n">
+        <v>495</v>
+      </c>
+      <c r="L71" t="n">
+        <v>5</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3324,6 +4109,17 @@
       <c r="J72" t="n">
         <v>62</v>
       </c>
+      <c r="K72" t="n">
+        <v>492</v>
+      </c>
+      <c r="L72" t="n">
+        <v>6</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3364,6 +4160,17 @@
       <c r="J73" t="n">
         <v>60</v>
       </c>
+      <c r="K73" t="n">
+        <v>412</v>
+      </c>
+      <c r="L73" t="n">
+        <v>54</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3404,6 +4211,17 @@
       <c r="J74" t="n">
         <v>58</v>
       </c>
+      <c r="K74" t="n">
+        <v>374</v>
+      </c>
+      <c r="L74" t="n">
+        <v>73</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3444,6 +4262,17 @@
       <c r="J75" t="n">
         <v>61</v>
       </c>
+      <c r="K75" t="n">
+        <v>368</v>
+      </c>
+      <c r="L75" t="n">
+        <v>76</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3484,6 +4313,17 @@
       <c r="J76" t="n">
         <v>57</v>
       </c>
+      <c r="K76" t="n">
+        <v>428</v>
+      </c>
+      <c r="L76" t="n">
+        <v>39</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3524,6 +4364,17 @@
       <c r="J77" t="n">
         <v>65</v>
       </c>
+      <c r="K77" t="n">
+        <v>386</v>
+      </c>
+      <c r="L77" t="n">
+        <v>70</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3564,6 +4415,17 @@
       <c r="J78" t="n">
         <v>68</v>
       </c>
+      <c r="K78" t="n">
+        <v>414</v>
+      </c>
+      <c r="L78" t="n">
+        <v>53</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3604,6 +4466,17 @@
       <c r="J79" t="n">
         <v>47</v>
       </c>
+      <c r="K79" t="n">
+        <v>359</v>
+      </c>
+      <c r="L79" t="n">
+        <v>82</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>及格</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3644,6 +4517,17 @@
       <c r="J80" t="n">
         <v>92</v>
       </c>
+      <c r="K80" t="n">
+        <v>374</v>
+      </c>
+      <c r="L80" t="n">
+        <v>74</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3684,6 +4568,17 @@
       <c r="J81" t="n">
         <v>86</v>
       </c>
+      <c r="K81" t="n">
+        <v>350</v>
+      </c>
+      <c r="L81" t="n">
+        <v>87</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>及格</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3724,6 +4619,17 @@
       <c r="J82" t="n">
         <v>45</v>
       </c>
+      <c r="K82" t="n">
+        <v>412</v>
+      </c>
+      <c r="L82" t="n">
+        <v>55</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3764,6 +4670,17 @@
       <c r="J83" t="n">
         <v>71</v>
       </c>
+      <c r="K83" t="n">
+        <v>368</v>
+      </c>
+      <c r="L83" t="n">
+        <v>77</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3804,6 +4721,17 @@
       <c r="J84" t="n">
         <v>42</v>
       </c>
+      <c r="K84" t="n">
+        <v>397</v>
+      </c>
+      <c r="L84" t="n">
+        <v>65</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3844,6 +4772,17 @@
       <c r="J85" t="n">
         <v>77</v>
       </c>
+      <c r="K85" t="n">
+        <v>359</v>
+      </c>
+      <c r="L85" t="n">
+        <v>83</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>及格</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3884,6 +4823,17 @@
       <c r="J86" t="n">
         <v>99</v>
       </c>
+      <c r="K86" t="n">
+        <v>449</v>
+      </c>
+      <c r="L86" t="n">
+        <v>22</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3924,6 +4874,17 @@
       <c r="J87" t="n">
         <v>97</v>
       </c>
+      <c r="K87" t="n">
+        <v>485</v>
+      </c>
+      <c r="L87" t="n">
+        <v>7</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3964,6 +4925,17 @@
       <c r="J88" t="n">
         <v>66</v>
       </c>
+      <c r="K88" t="n">
+        <v>415</v>
+      </c>
+      <c r="L88" t="n">
+        <v>51</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4004,6 +4976,17 @@
       <c r="J89" t="n">
         <v>56</v>
       </c>
+      <c r="K89" t="n">
+        <v>417</v>
+      </c>
+      <c r="L89" t="n">
+        <v>49</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4044,6 +5027,17 @@
       <c r="J90" t="n">
         <v>99</v>
       </c>
+      <c r="K90" t="n">
+        <v>433</v>
+      </c>
+      <c r="L90" t="n">
+        <v>33</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4084,6 +5078,17 @@
       <c r="J91" t="n">
         <v>83</v>
       </c>
+      <c r="K91" t="n">
+        <v>436</v>
+      </c>
+      <c r="L91" t="n">
+        <v>30</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4124,6 +5129,17 @@
       <c r="J92" t="n">
         <v>66</v>
       </c>
+      <c r="K92" t="n">
+        <v>353</v>
+      </c>
+      <c r="L92" t="n">
+        <v>86</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>及格</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4164,6 +5180,17 @@
       <c r="J93" t="n">
         <v>83</v>
       </c>
+      <c r="K93" t="n">
+        <v>427</v>
+      </c>
+      <c r="L93" t="n">
+        <v>41</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4204,6 +5231,17 @@
       <c r="J94" t="n">
         <v>58</v>
       </c>
+      <c r="K94" t="n">
+        <v>410</v>
+      </c>
+      <c r="L94" t="n">
+        <v>56</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4244,6 +5282,17 @@
       <c r="J95" t="n">
         <v>89</v>
       </c>
+      <c r="K95" t="n">
+        <v>403</v>
+      </c>
+      <c r="L95" t="n">
+        <v>58</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4284,6 +5333,17 @@
       <c r="J96" t="n">
         <v>56</v>
       </c>
+      <c r="K96" t="n">
+        <v>419</v>
+      </c>
+      <c r="L96" t="n">
+        <v>48</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4324,6 +5384,17 @@
       <c r="J97" t="n">
         <v>48</v>
       </c>
+      <c r="K97" t="n">
+        <v>467</v>
+      </c>
+      <c r="L97" t="n">
+        <v>12</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4364,6 +5435,17 @@
       <c r="J98" t="n">
         <v>92</v>
       </c>
+      <c r="K98" t="n">
+        <v>481</v>
+      </c>
+      <c r="L98" t="n">
+        <v>9</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4403,6 +5485,17 @@
       </c>
       <c r="J99" t="n">
         <v>95</v>
+      </c>
+      <c r="K99" t="n">
+        <v>375</v>
+      </c>
+      <c r="L99" t="n">
+        <v>72</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
       </c>
     </row>
   </sheetData>
